--- a/test_cases/defecto_ TC_LS-S2-PE-16-04.xlsx
+++ b/test_cases/defecto_ TC_LS-S2-PE-16-04.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\GitHub\TestingAplicaciones-Los_Sintra-TPO\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68E14D80-AE07-4A01-872A-E14926823B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90122E59-AE26-4E43-A12A-32EF0749CB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
@@ -854,6 +854,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -872,54 +921,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -929,7 +930,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="5" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
@@ -1335,10 +1335,10 @@
       <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="6" t="s">
@@ -1469,33 +1469,33 @@
       <c r="F11" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="15" thickBot="1">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A14" s="55"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="G14" s="52" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="G14" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
     </row>
     <row r="15" spans="1:23" ht="21.6" thickTop="1" thickBot="1">
       <c r="A15" s="22" t="s">
@@ -1511,53 +1511,53 @@
       <c r="E15" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50" t="s">
+      <c r="H15" s="52"/>
+      <c r="I15" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50" t="s">
+      <c r="J15" s="52"/>
+      <c r="K15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50" t="s">
+      <c r="L15" s="52"/>
+      <c r="M15" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="50"/>
+      <c r="N15" s="52"/>
     </row>
     <row r="16" spans="1:23" ht="15.6" thickTop="1" thickBot="1">
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="48" t="s">
+      <c r="H16" s="56"/>
+      <c r="I16" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="48" t="s">
+      <c r="J16" s="56"/>
+      <c r="K16" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="49"/>
-      <c r="M16" s="48" t="s">
+      <c r="L16" s="56"/>
+      <c r="M16" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="49"/>
+      <c r="N16" s="56"/>
     </row>
     <row r="17" spans="1:14" ht="28.2" thickTop="1">
       <c r="A17" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="42" t="s">
+      <c r="C17" s="62"/>
+      <c r="D17" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="43"/>
+      <c r="E17" s="60"/>
       <c r="G17" s="14" t="s">
         <v>36</v>
       </c>
@@ -1587,14 +1587,14 @@
       <c r="A18" s="18">
         <v>1</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="46" t="s">
+      <c r="C18" s="51"/>
+      <c r="D18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="47"/>
+      <c r="E18" s="51"/>
       <c r="G18" s="16" t="s">
         <v>40</v>
       </c>
@@ -1622,14 +1622,14 @@
       <c r="A19" s="18">
         <v>2</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="46" t="s">
+      <c r="C19" s="51"/>
+      <c r="D19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="47"/>
+      <c r="E19" s="51"/>
       <c r="G19" s="16" t="s">
         <v>40</v>
       </c>
@@ -1657,14 +1657,14 @@
       <c r="A20" s="18">
         <v>3</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="46" t="s">
+      <c r="C20" s="51"/>
+      <c r="D20" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="47"/>
+      <c r="E20" s="51"/>
       <c r="G20" s="16" t="s">
         <v>40</v>
       </c>
@@ -1692,10 +1692,10 @@
       <c r="A21" s="18">
         <v>4</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
@@ -1707,10 +1707,10 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="18"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5"/>
@@ -1722,10 +1722,10 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="18"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5"/>
@@ -1736,77 +1736,111 @@
       <c r="N23" s="3"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51" t="s">
+      <c r="H25" s="53"/>
+      <c r="I25" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51" t="s">
+      <c r="J25" s="53"/>
+      <c r="K25" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51" t="s">
+      <c r="L25" s="53"/>
+      <c r="M25" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="N25" s="51"/>
+      <c r="N25" s="53"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1">
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53" t="s">
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
     </row>
     <row r="27" spans="1:14" ht="26.1" customHeight="1">
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1">
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1">
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1">
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:E14"/>
     <mergeCell ref="K29:L29"/>
@@ -1823,40 +1857,6 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1867,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19C3A39-FFB1-416B-9AA1-6DCAB5934A9A}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1897,38 +1897,38 @@
       <c r="A5" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="64"/>
     </row>
     <row r="6" spans="1:3" ht="14.4" customHeight="1">
       <c r="A6" s="32"/>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="64"/>
+      <c r="C6" s="65"/>
     </row>
     <row r="7" spans="1:3" ht="14.4" customHeight="1">
       <c r="A7" s="32"/>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="64"/>
+      <c r="C7" s="65"/>
     </row>
     <row r="8" spans="1:3" ht="14.4" customHeight="1">
       <c r="A8" s="32"/>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="64"/>
     </row>
     <row r="9" spans="1:3" ht="14.4" customHeight="1">
       <c r="A9" s="33"/>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="64"/>
     </row>
     <row r="10" spans="1:3" ht="22.8" customHeight="1"/>
     <row r="11" spans="1:3" ht="22.8" customHeight="1">
@@ -1982,7 +1982,7 @@
       <c r="A22" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="40" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2010,18 +2010,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2163,18 +2163,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B3F5DA2-BED8-4604-AB0E-DD92EF7CB70B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48F33236-0234-4F58-AB18-4BF6DA61EA57}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48F33236-0234-4F58-AB18-4BF6DA61EA57}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B3F5DA2-BED8-4604-AB0E-DD92EF7CB70B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
